--- a/data/var/ktes.xlsx
+++ b/data/var/ktes.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My\Repo\kte\src\misc\closed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My\Repo\kte\data\var\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11835"/>
   </bookViews>
   <sheets>
-    <sheet name="z" sheetId="1" r:id="rId1"/>
+    <sheet name="2023-03-13" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>FILE</t>
   </si>
@@ -163,6 +163,18 @@
   </si>
   <si>
     <t>30</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>31</t>
   </si>
 </sst>
 </file>
@@ -1022,9 +1034,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1687,6 +1701,80 @@
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
     </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="5">
+        <v>8</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/var/ktes.xlsx
+++ b/data/var/ktes.xlsx
@@ -12,14 +12,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11835"/>
   </bookViews>
   <sheets>
-    <sheet name="2023-03-13" sheetId="2" r:id="rId1"/>
+    <sheet name="2023-03-15" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>FILE</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>st3@b</t>
-  </si>
-  <si>
-    <t>st3@t</t>
   </si>
   <si>
     <t>thread@b</t>
@@ -1034,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,14 +1046,13 @@
     <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1093,13 +1089,10 @@
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="B2" s="5">
         <v>6</v>
@@ -1114,11 +1107,10 @@
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1128,18 +1120,17 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5">
+      <c r="J3" s="5">
         <v>6</v>
       </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5">
+      <c r="K3" s="5"/>
+      <c r="L3" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1148,17 +1139,16 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5">
+      <c r="I4" s="5">
         <v>3</v>
       </c>
+      <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1173,11 +1163,10 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1190,11 +1179,10 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1207,11 +1195,10 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1221,18 +1208,17 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5" t="s">
+      <c r="J8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5" t="s">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="B9" s="5">
         <v>5</v>
@@ -1247,11 +1233,10 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1260,19 +1245,18 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5">
+      <c r="I10" s="5">
         <v>4</v>
       </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5">
+      <c r="J10" s="5"/>
+      <c r="K10" s="5">
         <v>5</v>
       </c>
-      <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1285,11 +1269,10 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="5">
         <v>6</v>
@@ -1303,18 +1286,17 @@
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5">
+      <c r="J12" s="5">
         <v>10</v>
       </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5">
+      <c r="K12" s="5"/>
+      <c r="L12" s="5">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1324,18 +1306,17 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5">
+      <c r="J13" s="5">
         <v>6</v>
       </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5">
+      <c r="K13" s="5"/>
+      <c r="L13" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5">
@@ -1347,18 +1328,17 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5" t="s">
+      <c r="J14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1373,14 +1353,13 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1392,11 +1371,10 @@
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1406,18 +1384,17 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5">
+      <c r="J17" s="5">
         <v>6</v>
       </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5">
+      <c r="K17" s="5"/>
+      <c r="L17" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1429,16 +1406,15 @@
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5">
+      <c r="J18" s="5">
         <v>6</v>
       </c>
+      <c r="K18" s="5"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="5">
         <v>7</v>
@@ -1449,17 +1425,16 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5">
+      <c r="I19" s="5">
         <v>3</v>
       </c>
+      <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1474,11 +1449,10 @@
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1491,34 +1465,32 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="G22" s="5">
+        <v>7</v>
+      </c>
       <c r="H22" s="5"/>
-      <c r="I22" s="5">
-        <v>7</v>
-      </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5">
+      <c r="I22" s="5"/>
+      <c r="J22" s="5">
         <v>9</v>
       </c>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5">
+      <c r="K22" s="5"/>
+      <c r="L22" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1530,17 +1502,16 @@
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5">
+      <c r="L23" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -1556,11 +1527,10 @@
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1571,19 +1541,18 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5">
+      <c r="I25" s="5">
         <v>4</v>
       </c>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5">
+      <c r="J25" s="5"/>
+      <c r="K25" s="5">
         <v>5</v>
       </c>
-      <c r="M25" s="5"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1596,14 +1565,13 @@
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -1615,11 +1583,10 @@
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1632,19 +1599,18 @@
         <v>8</v>
       </c>
       <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
+      <c r="I28" s="5">
+        <v>2</v>
+      </c>
       <c r="J28" s="5">
-        <v>2</v>
-      </c>
-      <c r="K28" s="5">
         <v>7</v>
       </c>
+      <c r="K28" s="5"/>
       <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1654,16 +1620,15 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5">
+      <c r="J29" s="5">
         <v>7</v>
       </c>
+      <c r="K29" s="5"/>
       <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1678,11 +1643,10 @@
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B31" s="5">
         <v>8</v>
@@ -1694,16 +1658,15 @@
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5">
+      <c r="J31" s="5">
         <v>7</v>
       </c>
+      <c r="K31" s="5"/>
       <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -1716,14 +1679,13 @@
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -1732,16 +1694,15 @@
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="J33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" s="5"/>
       <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34" s="5">
         <v>8</v>
@@ -1756,11 +1717,10 @@
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -1773,7 +1733,6 @@
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
